--- a/TestBot/prices.xlsx
+++ b/TestBot/prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\c#\TestTelegramBot\TestTelegramBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\c#\PaternTelegaBot\TestBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E20AC-9257-4EA2-9846-BA83C29602B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6EDC2-2019-4423-8318-8BE5FA1A7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="2445" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715C202-6988-1040-8D07-BA464858BF04}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
